--- a/T.xlsx
+++ b/T.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>0°C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>容量/记录</t>
+  </si>
+  <si>
+    <t>85.2(5.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.2(5.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -302,6 +310,15 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,15 +329,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -651,144 +659,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="12">
         <v>2554.1999999999998</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="12">
         <v>2941.3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="12">
         <v>3180.25</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <v>3206.8133333333335</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="12">
         <v>3321.8599999999997</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="12">
         <v>3331.7666666666664</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="12">
         <v>3284.95</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8" t="s">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8" t="s">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8" t="s">
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
@@ -928,6 +936,12 @@
       </c>
     </row>
     <row r="14" spans="1:15">
+      <c r="H14" s="2">
+        <v>3216.5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
       <c r="J14" s="2">
         <v>3322.9</v>
       </c>
@@ -936,6 +950,12 @@
       </c>
     </row>
     <row r="15" spans="1:15">
+      <c r="H15" s="2">
+        <v>3206.5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
       <c r="J15" s="2">
         <v>3321.6</v>
       </c>
@@ -967,6 +987,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="N8:O9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C9"/>
@@ -983,15 +1012,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A6:F7"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1003,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -1013,48 +1033,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="8">
         <v>2554.1999999999998</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="9">
         <v>2890.36</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="8">
         <v>3180.25</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="9">
         <v>3206.8133333333335</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>3321.8599999999997</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="9">
         <v>3331.7666666666664</v>
       </c>
     </row>

--- a/T.xlsx
+++ b/T.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -153,12 +153,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,13 +322,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,6 +425,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -460,6 +477,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,10 +673,10 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
@@ -658,7 +692,7 @@
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
@@ -684,7 +718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -694,61 +728,61 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <v>2554.1999999999998</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>2941.3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>3180.25</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>3206.8133333333335</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="13">
         <v>3321.8599999999997</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="13">
         <v>3331.7666666666664</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="13">
         <v>3284.95</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="13" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
@@ -781,7 +815,7 @@
       </c>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -798,7 +832,7 @@
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,7 +870,7 @@
         <v>3284.95</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D11" s="2">
         <v>2941.3</v>
       </c>
@@ -871,7 +905,7 @@
         <v>76.099999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D12" s="4">
         <v>2801.78</v>
       </c>
@@ -906,7 +940,7 @@
         <v>77.099999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="D13" s="4">
         <v>2928</v>
       </c>
@@ -935,7 +969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H14" s="2">
         <v>3216.5</v>
       </c>
@@ -949,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H15" s="2">
         <v>3206.5</v>
       </c>
@@ -963,7 +997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="10:15">
+    <row r="18" spans="10:15" x14ac:dyDescent="0.15">
       <c r="J18" s="2">
         <v>3518</v>
       </c>
@@ -971,7 +1005,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="19" spans="10:15">
+    <row r="19" spans="10:15" x14ac:dyDescent="0.15">
       <c r="J19" s="2">
         <v>3550</v>
       </c>
@@ -987,15 +1021,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="N8:O9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C9"/>
@@ -1012,6 +1037,15 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A6:F7"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,12 +1061,12 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
@@ -1091,7 +1125,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
